--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -132,12 +132,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -181,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -206,15 +212,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,7 +228,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -239,6 +261,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -250,19 +332,20 @@
   <dimension ref="1:11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,10 +408,10 @@
       <c r="B3" s="7" t="n">
         <v>43158</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9"/>
@@ -341,13 +424,13 @@
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="11" t="n">
         <v>43159</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="9"/>
@@ -360,13 +443,13 @@
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="11" t="n">
         <v>43160</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="9"/>
@@ -376,10 +459,10 @@
       <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="13" t="n">
         <v>43161</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -395,10 +478,10 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B7" s="13" t="n">
         <v>43162</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -414,10 +497,10 @@
       <c r="I7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="n">
+      <c r="B8" s="13" t="n">
         <v>43163</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -433,10 +516,10 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B9" s="13" t="n">
         <v>43164</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -452,10 +535,10 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="14" t="n">
         <v>43165</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -471,10 +554,10 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="14" t="n">
         <v>43166</v>
       </c>
       <c r="C11" s="9" t="s">

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t xml:space="preserve">S.NO </t>
   </si>
@@ -55,10 +55,34 @@
     <t xml:space="preserve">complete excercises on Inputout,expressions, </t>
   </si>
   <si>
-    <t xml:space="preserve">Control Statements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do excercise on control statements</t>
+    <t xml:space="preserve">completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 prgrms doubt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i have doubt on 5 prgrams from exerisece </t>
+  </si>
+  <si>
+    <t xml:space="preserve">files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do excercise on files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">still practice needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 to 8 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i have doubt about fwrite() function remaing concepts almost completed</t>
   </si>
   <si>
     <t xml:space="preserve">Functions</t>
@@ -67,25 +91,67 @@
     <t xml:space="preserve">Do excercise on Functions</t>
   </si>
   <si>
+    <t xml:space="preserve">have doubts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 to 6 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have doubts in expressions topic and functions exersices programs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/02/18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arrays</t>
   </si>
   <si>
     <t xml:space="preserve">Do excercise on Arrays</t>
   </si>
   <si>
+    <t xml:space="preserve">few programs left,yet to complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed functions exersice and arrays programs completed,have doubts in functions</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pointers</t>
   </si>
   <si>
     <t xml:space="preserve">Do objective Excercise</t>
   </si>
   <si>
+    <t xml:space="preserve">at to do </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6  hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">completed all poics in pointers except dynamic memory allocation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strings</t>
   </si>
   <si>
+    <t xml:space="preserve">7 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have doubts in  exersices programs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Structure and Union</t>
   </si>
   <si>
-    <t xml:space="preserve">Files</t>
+    <t xml:space="preserve">not at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consepts of structures and unions completed exerises not done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control statments</t>
   </si>
   <si>
     <t xml:space="preserve">The C Preprocessor, Miscellaneous Features</t>
@@ -132,18 +198,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF33FF99"/>
-        <bgColor rgb="FF00FFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -164,7 +224,7 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -187,12 +247,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,7 +260,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -208,32 +268,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -244,12 +280,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -261,66 +297,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33FF99"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -329,23 +305,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9030612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.8724489795918"/>
+    <col collapsed="false" hidden="false" max="256" min="10" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,13 +353,8 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="23.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
@@ -395,138 +367,208 @@
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>43158</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="7" t="n">
         <v>43159</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="n">
-        <v>43160</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>43161</v>
+      <c r="B6" s="7" t="n">
+        <v>43162</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>43162</v>
+      <c r="B7" s="7" t="n">
+        <v>43164</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="7" t="n">
+        <v>43165</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="n">
         <v>43163</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="n">
-        <v>43164</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -535,17 +577,17 @@
       <c r="I9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>43165</v>
+      <c r="B10" s="7" t="n">
+        <v>43164</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -554,17 +596,17 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="n">
-        <v>43166</v>
+      <c r="B11" s="7" t="n">
+        <v>43165</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -575,7 +617,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Plan.xlsx
+++ b/Plan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t xml:space="preserve">S.NO </t>
   </si>
@@ -158,15 +158,46 @@
   </si>
   <si>
     <t xml:space="preserve">Bitwise Operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lpc2148-Block diagram and Pin Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I/O Pins and Registers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED,Switch,Buzzer Interfacing,Seven segment display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interrupts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC,DC motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay,LCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.Mar.2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open,write,close,System calls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="166" formatCode="D&quot;. &quot;MMM&quot;. &quot;YYYY"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -206,7 +237,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -221,6 +252,13 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -247,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -286,6 +324,46 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,24 +383,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="107" zoomScaleNormal="107" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.8724489795918"/>
-    <col collapsed="false" hidden="false" max="256" min="10" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.3316326530612"/>
+    <col collapsed="false" hidden="false" max="256" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -613,6 +691,177 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
+    </row>
+    <row r="15" s="11" customFormat="true" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" s="16" customFormat="true" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="n">
+        <v>43173</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="n">
+        <v>43174</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" s="16" customFormat="true" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="n">
+        <v>43175</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="17" t="n">
+        <v>43176</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="17" t="n">
+        <v>43177</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="17" t="n">
+        <v>43178</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>43179</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" s="17" t="n">
+        <v>43180</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="29" s="5" customFormat="true" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
